--- a/Экзамены _вопросы_1семестр_В01-ВТ-121/Python ВТ 121.xlsx
+++ b/Экзамены _вопросы_1семестр_В01-ВТ-121/Python ВТ 121.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99D3D52-56B6-4FAA-8FC0-B8FC854DE717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="30600" yWindow="2160" windowWidth="27000" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Список 1" sheetId="1" r:id="rId1"/>
@@ -1078,8 +1079,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1088,16 +1089,30 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1105,11 +1120,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="distributed"/>
@@ -1121,10 +1151,22 @@
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="top"/>
+      <alignment horizontal="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1132,13 +1174,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1176,7 +1226,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1210,6 +1260,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1244,9 +1295,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1419,28 +1471,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="49.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.77734375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="5">
         <v>3</v>
       </c>
       <c r="C1" s="1">
@@ -1456,11 +1508,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="5">
         <v>1980</v>
       </c>
       <c r="C2" s="1">
@@ -1476,11 +1528,11 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1496,11 +1548,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1516,11 +1568,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1536,11 +1588,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1556,11 +1608,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45">
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1576,11 +1628,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="60">
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1596,11 +1648,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="105">
+    <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1616,11 +1668,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45">
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1636,11 +1688,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45">
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1656,11 +1708,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45">
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1676,11 +1728,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45">
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1696,11 +1748,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1716,11 +1768,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1736,11 +1788,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45">
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1756,11 +1808,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="45">
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1776,11 +1828,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1796,11 +1848,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="45">
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1816,11 +1868,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="105">
+    <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1836,11 +1888,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="45">
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1856,11 +1908,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="5">
         <v>2</v>
       </c>
       <c r="C22" s="1">
@@ -1876,11 +1928,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="45">
+    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1896,11 +1948,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="75">
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1916,11 +1968,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="45">
+    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1936,11 +1988,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="60">
+    <row r="26" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1956,11 +2008,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="60">
+    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>107</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1976,11 +2028,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="45">
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>112</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1996,11 +2048,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="45">
+    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2016,11 +2068,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="45">
+    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>122</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2036,11 +2088,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="45">
+    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -2056,11 +2108,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45">
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -2076,11 +2128,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30">
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -2096,11 +2148,11 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30">
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="6" t="s">
         <v>348</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -2116,11 +2168,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30">
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="7" t="s">
         <v>149</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -2136,11 +2188,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30">
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="6" t="s">
         <v>351</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -2156,11 +2208,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="45">
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="6" t="s">
         <v>146</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -2176,11 +2228,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="45">
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="6" t="s">
         <v>161</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -2196,11 +2248,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="6" t="s">
         <v>162</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -2216,11 +2268,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="60">
+    <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="6" t="s">
         <v>168</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -2236,11 +2288,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="6" t="s">
         <v>173</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -2256,11 +2308,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="45">
+    <row r="42" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="6" t="s">
         <v>176</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -2276,11 +2328,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="75">
+    <row r="43" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="5" t="s">
         <v>181</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -2296,11 +2348,11 @@
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2316,11 +2368,11 @@
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="5">
         <v>625</v>
       </c>
       <c r="C45" s="1">
@@ -2336,11 +2388,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="105">
+    <row r="46" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="5" t="s">
         <v>194</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2356,11 +2408,11 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="5">
         <v>0</v>
       </c>
       <c r="C47" s="1">
@@ -2376,11 +2428,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="5">
         <v>32</v>
       </c>
       <c r="C48" s="1">
@@ -2396,11 +2448,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="5" t="s">
         <v>202</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2416,11 +2468,11 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="45">
+    <row r="50" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="5" t="s">
         <v>208</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2436,11 +2488,11 @@
         <v>198</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30">
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="8" t="s">
         <v>211</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2456,11 +2508,11 @@
         <v>215</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30">
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="5">
         <v>125</v>
       </c>
       <c r="C52" s="1">
@@ -2476,11 +2528,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30">
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="5" t="s">
         <v>218</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2496,11 +2548,11 @@
         <v>222</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="45">
+    <row r="54" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="5" t="s">
         <v>228</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2516,11 +2568,11 @@
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="45">
+    <row r="55" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="5" t="s">
         <v>230</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2536,11 +2588,11 @@
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="30">
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="5" t="s">
         <v>235</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2556,11 +2608,11 @@
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="90">
+    <row r="57" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="5" t="s">
         <v>241</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -2576,11 +2628,11 @@
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="5" t="s">
         <v>246</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -2596,11 +2648,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30">
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="5" t="s">
         <v>252</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -2616,11 +2668,11 @@
         <v>255</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="60">
+    <row r="60" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="5" t="s">
         <v>258</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -2636,11 +2688,11 @@
         <v>262</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30">
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="5" t="s">
         <v>264</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -2656,11 +2708,11 @@
         <v>268</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30">
+    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="5" t="s">
         <v>270</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -2676,11 +2728,11 @@
         <v>274</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="120">
+    <row r="63" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="5" t="s">
         <v>276</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -2696,11 +2748,11 @@
         <v>347</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="90">
+    <row r="64" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="5" t="s">
         <v>281</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -2716,11 +2768,11 @@
         <v>285</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="60">
+    <row r="65" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="5" t="s">
         <v>287</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -2736,11 +2788,11 @@
         <v>291</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="5" t="s">
         <v>293</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -2756,11 +2808,11 @@
         <v>297</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="45">
+    <row r="67" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="5" t="s">
         <v>299</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -2776,11 +2828,11 @@
         <v>303</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="60">
+    <row r="68" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="5" t="s">
         <v>305</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -2796,11 +2848,11 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30">
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="5" t="s">
         <v>311</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -2816,31 +2868,34 @@
         <v>315</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="4" t="s">
         <v>320</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30">
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="5" t="s">
         <v>323</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -2856,11 +2911,11 @@
         <v>327</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30">
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="5" t="s">
         <v>329</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -2876,11 +2931,11 @@
         <v>333</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="30">
+    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="5" t="s">
         <v>335</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -2896,11 +2951,11 @@
         <v>339</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="45">
+    <row r="75" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="5">
         <v>2</v>
       </c>
       <c r="C75" s="1">
@@ -2916,11 +2971,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="60">
+    <row r="76" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="5" t="s">
         <v>342</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -2943,12 +2998,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -2956,12 +3011,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
